--- a/dev/Transferencias.xlsx
+++ b/dev/Transferencias.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CADASTRAR JOGADORES'!$D$1:$D$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CADASTRAR JOGADORES'!$D$1:$D$177</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="166">
   <si>
     <t>Pain Gaming</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Nyu</t>
   </si>
   <si>
-    <t>Krastiel</t>
-  </si>
-  <si>
     <t>DudstheBoy</t>
   </si>
   <si>
@@ -517,14 +514,25 @@
   </si>
   <si>
     <t>Juzo</t>
+  </si>
+  <si>
+    <t>Krastyel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -552,10 +560,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,11 +921,11 @@
       <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="2">
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1020,11 +1031,11 @@
       <c r="B7" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="2" t="e">
-        <v>#N/A</v>
+      <c r="C7" s="2">
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -1046,11 +1057,11 @@
       <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="2" t="e">
-        <v>#N/A</v>
+      <c r="C8" s="2">
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -1065,24 +1076,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43113</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
         <v>137</v>
@@ -1091,21 +1099,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43113</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
         <v>137</v>
@@ -1114,30 +1125,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43113</v>
+        <v>43131</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
+      </c>
+      <c r="C11" s="2">
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1145,138 +1156,138 @@
         <v>43131</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I12">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43131</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="2">
-        <v>62</v>
+        <v>165</v>
+      </c>
+      <c r="C13" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43131</v>
       </c>
       <c r="B14" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>163</v>
+      <c r="C14" s="2">
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I14">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="2">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15">
-        <v>17</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>43162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43162</v>
+        <v>43165</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1284,46 +1295,23 @@
         <v>43165</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43165</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20">
-        <v>16</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1335,72 +1323,95 @@
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>43201</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43201</v>
+        <v>43210</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I25">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43210</v>
+        <v>43215</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1408,16 +1419,16 @@
         <v>43216</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -1434,65 +1445,65 @@
         <v>43216</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>43218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43218</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -1509,19 +1520,19 @@
         <v>43218</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>84</v>
@@ -1535,19 +1546,19 @@
         <v>43218</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>84</v>
@@ -1561,16 +1572,16 @@
         <v>43218</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C35" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -1584,52 +1595,29 @@
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43218</v>
+        <v>43222</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43222</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="2">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1640,58 +1628,75 @@
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>126</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43225</v>
+        <v>43229</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>163</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43229</v>
+        <v>43231</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
-      <c r="F43" t="s">
-        <v>5</v>
-      </c>
       <c r="H43" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43231</v>
+        <v>43232</v>
       </c>
       <c r="B44" t="s">
         <v>68</v>
@@ -1700,127 +1705,110 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
       </c>
       <c r="H44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2">
+        <v>130</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
         <v>64</v>
       </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43232</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="2">
-        <v>85</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="2">
         <v>28</v>
       </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>43235</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="2">
+        <v>126</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>43236</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="2">
-        <v>28</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43236</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50">
+      <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49">
         <v>17</v>
       </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1829,29 +1817,52 @@
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="2">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>160</v>
+      </c>
+      <c r="I53">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43237</v>
+        <v>43238</v>
       </c>
       <c r="B54" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54">
         <v>17</v>
@@ -1859,28 +1870,25 @@
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43238</v>
+        <v>43242</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1888,22 +1896,25 @@
         <v>43242</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="C56" s="2">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1911,16 +1922,16 @@
         <v>43242</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G57" s="2">
         <v>0</v>
@@ -1932,21 +1943,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43242</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" s="2">
-        <v>53</v>
+        <v>131</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G58" s="2">
         <v>0</v>
@@ -1958,66 +1972,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43242</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
+      </c>
+      <c r="C59" s="2">
+        <v>7</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43242</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="2">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="2">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2030,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
         <v>49</v>
@@ -2050,25 +2061,25 @@
         <v>43244</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2076,19 +2087,19 @@
         <v>43244</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
         <v>104</v>
@@ -2098,108 +2109,85 @@
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>43244</v>
       </c>
-      <c r="B66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="2">
-        <v>45</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" t="s">
-        <v>104</v>
-      </c>
-      <c r="I66">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43244</v>
+        <v>43250</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
         <v>18</v>
       </c>
-      <c r="H68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>43250</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="2">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" t="s">
-        <v>123</v>
-      </c>
-      <c r="I69">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="I70">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>43273</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="2">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71">
-        <v>4</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2208,17 +2196,37 @@
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C75" s="2">
-        <v>36</v>
+        <v>131</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
@@ -2230,64 +2238,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43322</v>
+        <v>43327</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="2" t="e">
+        <v>51</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43348</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>43327</v>
-      </c>
-      <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="2">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="D78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43348</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="2" t="e">
-        <v>#N/A</v>
+        <v>130</v>
+      </c>
+      <c r="C79" s="2">
+        <v>129</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -2304,13 +2312,13 @@
         <v>43348</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
@@ -2327,13 +2335,13 @@
         <v>43348</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C81" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -2345,54 +2353,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>43348</v>
-      </c>
-      <c r="B82" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" t="s">
-        <v>132</v>
-      </c>
-      <c r="I82">
-        <v>10</v>
-      </c>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>43350</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="2">
+        <v>114</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>43350</v>
-      </c>
-      <c r="B85" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="2">
-        <v>114</v>
-      </c>
-      <c r="E85" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" t="s">
-        <v>123</v>
-      </c>
-      <c r="I85">
-        <v>9</v>
-      </c>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
@@ -2401,26 +2389,43 @@
       <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>43363</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43363</v>
+        <v>43364</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2434,33 +2439,36 @@
         <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43364</v>
+        <v>43366</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s">
         <v>92</v>
@@ -2480,96 +2488,96 @@
         <v>74</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43366</v>
+        <v>43367</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="2">
-        <v>74</v>
+        <v>128</v>
+      </c>
+      <c r="C93" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43367</v>
+        <v>43371</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="2" t="e">
-        <v>#N/A</v>
+        <v>69</v>
+      </c>
+      <c r="C94" s="2">
+        <v>130</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="I94">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>43371</v>
-      </c>
-      <c r="B95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E95" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" t="s">
-        <v>64</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43378</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="2">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>132</v>
+      </c>
+      <c r="I96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43378</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C97" s="2">
-        <v>41</v>
+        <v>132</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E97" t="s">
         <v>2</v>
@@ -2581,27 +2589,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43378</v>
+        <v>43383</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
+      </c>
+      <c r="C98" s="2">
+        <v>104</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
       </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2609,22 +2617,19 @@
         <v>43383</v>
       </c>
       <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="2">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99">
         <v>15</v>
-      </c>
-      <c r="C99" s="2">
-        <v>104</v>
-      </c>
-      <c r="E99" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2632,10 +2637,10 @@
         <v>43383</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C100" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
@@ -2649,42 +2654,48 @@
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43383</v>
+        <v>43384</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I101">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43384</v>
+        <v>43385</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C102" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H102" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2692,25 +2703,22 @@
         <v>43385</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s">
         <v>49</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" t="s">
-        <v>18</v>
-      </c>
       <c r="I103">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2718,16 +2726,16 @@
         <v>43385</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="H104" t="s">
         <v>49</v>
@@ -2741,16 +2749,16 @@
         <v>43385</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F105" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
@@ -2764,42 +2772,42 @@
         <v>43385</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
-      </c>
-      <c r="F106" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="I106">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43385</v>
+        <v>43389</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
       <c r="H107" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2807,22 +2815,19 @@
         <v>43389</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
-      <c r="F108" t="s">
-        <v>18</v>
-      </c>
       <c r="H108" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2830,59 +2835,65 @@
         <v>43389</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="C109" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43389</v>
+        <v>43391</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C110" s="2">
+        <v>52</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
         <v>64</v>
       </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="H110" t="s">
-        <v>18</v>
-      </c>
       <c r="I110">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43391</v>
+        <v>43393</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C111" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E111" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2890,16 +2901,16 @@
         <v>43393</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2">
         <v>1</v>
@@ -2916,74 +2927,68 @@
         <v>43393</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C113" s="2">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G113" s="2">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43393</v>
+        <v>43395</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C114" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>55</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43395</v>
+        <v>43397</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C115" s="2">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="I115">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -2991,16 +2996,16 @@
         <v>43397</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C116" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="H116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I116">
         <v>17</v>
@@ -3008,120 +3013,120 @@
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43397</v>
+        <v>43398</v>
       </c>
       <c r="B117" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="2">
+        <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="I117">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H118" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="I118">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43400</v>
+        <v>43401</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C119" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>59</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="I119">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43401</v>
+        <v>43404</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
-      </c>
-      <c r="G120" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H120" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3129,10 +3134,10 @@
         <v>43405</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C122" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -3149,91 +3154,94 @@
         <v>43405</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C123" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E123" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43405</v>
+        <v>43407</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C124" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43411</v>
+      </c>
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" s="2">
+        <v>77</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
         <v>59</v>
       </c>
-      <c r="G124" s="2">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>64</v>
-      </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>43407</v>
-      </c>
-      <c r="B125" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="2">
-        <v>36</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G125" s="2">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>38</v>
-      </c>
-      <c r="I125">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="H126" t="s">
+        <v>92</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43411</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H127" t="s">
         <v>92</v>
@@ -3244,74 +3252,77 @@
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43411</v>
+        <v>43412</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C128" s="2">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I128">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>43412</v>
-      </c>
-      <c r="B129" t="s">
-        <v>57</v>
-      </c>
-      <c r="C129" s="2">
-        <v>12</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="2">
+        <v>42</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
         <v>40</v>
       </c>
-      <c r="G129" s="2">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="G130" s="2">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>104</v>
+      </c>
+      <c r="I130">
+        <v>16</v>
+      </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43414</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>104</v>
@@ -3322,28 +3333,22 @@
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43414</v>
+        <v>43417</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C132" s="2">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>59</v>
-      </c>
-      <c r="G132" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I132">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3351,19 +3356,25 @@
         <v>43417</v>
       </c>
       <c r="B133" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E133" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3377,88 +3388,88 @@
         <v>38</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I134">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>43417</v>
-      </c>
-      <c r="B135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" s="2">
-        <v>38</v>
-      </c>
-      <c r="E135" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" t="s">
-        <v>84</v>
-      </c>
-      <c r="I135">
-        <v>8</v>
-      </c>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="2">
+        <v>50</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>43424</v>
-      </c>
-      <c r="B137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="2">
-        <v>50</v>
-      </c>
-      <c r="E137" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" t="s">
-        <v>23</v>
-      </c>
-      <c r="I137">
-        <v>5</v>
-      </c>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="2">
+        <v>109</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>55</v>
+      </c>
+      <c r="H138" t="s">
+        <v>137</v>
+      </c>
+      <c r="I138">
+        <v>11</v>
+      </c>
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C139" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="G139" s="2">
+        <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I139">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3466,16 +3477,16 @@
         <v>43427</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C140" s="2">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140" s="2">
         <v>1</v>
@@ -3489,62 +3500,56 @@
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43427</v>
+        <v>43431</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>37</v>
-      </c>
-      <c r="G141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I141">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43431</v>
+        <v>43432</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43432</v>
+        <v>43434</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E143" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H143" t="s">
         <v>64</v>
@@ -3558,24 +3563,24 @@
         <v>43434</v>
       </c>
       <c r="B144" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43434</v>
+        <v>43436</v>
       </c>
       <c r="B145" t="s">
         <v>103</v>
@@ -3584,79 +3589,82 @@
         <v>75</v>
       </c>
       <c r="E145" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>146</v>
       </c>
       <c r="H145" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="I145">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43436</v>
       </c>
       <c r="B146" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C146" s="2">
-        <v>75</v>
+        <v>126</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I146">
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>43436</v>
-      </c>
-      <c r="B147" t="s">
-        <v>106</v>
-      </c>
-      <c r="C147" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E147" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-      <c r="I147">
-        <v>17</v>
-      </c>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2">
+        <v>21</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="H148" t="s">
+        <v>83</v>
+      </c>
+      <c r="I148">
+        <v>14</v>
+      </c>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H149" t="s">
         <v>83</v>
@@ -3667,25 +3675,22 @@
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43439</v>
+        <v>43440</v>
       </c>
       <c r="B150" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C150" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I150">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3693,42 +3698,42 @@
         <v>43440</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>28</v>
       </c>
       <c r="H151" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I151">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43440</v>
+        <v>43441</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C152" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I152">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3742,13 +3747,16 @@
         <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3756,10 +3764,10 @@
         <v>43441</v>
       </c>
       <c r="B154" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C154" s="2">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -3767,57 +3775,60 @@
       <c r="F154" t="s">
         <v>26</v>
       </c>
+      <c r="G154" s="2">
+        <v>1</v>
+      </c>
       <c r="H154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I154">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="B155" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="I155">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43442</v>
+        <v>43443</v>
       </c>
       <c r="B156" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="E156" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="I156">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -3828,19 +3839,19 @@
         <v>156</v>
       </c>
       <c r="C157" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="G157" s="2">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I157">
         <v>18</v>
@@ -3851,22 +3862,22 @@
         <v>43443</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I158">
         <v>18</v>
@@ -3877,71 +3888,71 @@
         <v>43443</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C159" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="G159" s="2">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I159">
         <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>43443</v>
-      </c>
-      <c r="B160" t="s">
-        <v>139</v>
-      </c>
-      <c r="C160" s="2">
-        <v>122</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>148</v>
-      </c>
-      <c r="G160" s="2">
-        <v>1</v>
-      </c>
-      <c r="H160" t="s">
-        <v>155</v>
-      </c>
-      <c r="I160">
-        <v>18</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>43445</v>
+      </c>
+      <c r="B161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" s="2">
+        <v>119</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" s="2">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>64</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43445</v>
       </c>
       <c r="B162" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G162" s="2">
         <v>1</v>
@@ -3958,19 +3969,19 @@
         <v>43445</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C163" s="2">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G163" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
         <v>64</v>
@@ -3984,19 +3995,13 @@
         <v>43445</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C164" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
-      </c>
-      <c r="F164" t="s">
-        <v>59</v>
-      </c>
-      <c r="G164" s="2">
-        <v>0</v>
       </c>
       <c r="H164" t="s">
         <v>64</v>
@@ -4006,46 +4011,52 @@
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>43445</v>
-      </c>
-      <c r="B165" t="s">
-        <v>77</v>
-      </c>
-      <c r="C165" s="2">
-        <v>51</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" t="s">
-        <v>64</v>
-      </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>43446</v>
+      </c>
+      <c r="B167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="2">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>59</v>
+      </c>
+      <c r="G167" s="2">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43446</v>
       </c>
       <c r="B168" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C168" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
       </c>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G168" s="2">
         <v>1</v>
@@ -4062,16 +4073,16 @@
         <v>43446</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C169" s="2">
+        <v>99</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
         <v>37</v>
-      </c>
-      <c r="E169" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" t="s">
-        <v>40</v>
       </c>
       <c r="G169" s="2">
         <v>1</v>
@@ -4088,19 +4099,16 @@
         <v>43446</v>
       </c>
       <c r="B170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" t="s">
-        <v>37</v>
-      </c>
-      <c r="G170" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="H170" t="s">
         <v>18</v>
@@ -4111,48 +4119,45 @@
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43446</v>
+        <v>43452</v>
       </c>
       <c r="B171" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C171" s="2">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E171" t="s">
-        <v>2</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="F171" t="s">
+        <v>59</v>
       </c>
       <c r="H171" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43452</v>
+        <v>43453</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C172" s="2">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="I172">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4160,22 +4165,22 @@
         <v>43453</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C173" s="2">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
       </c>
       <c r="H173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I173">
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43453</v>
       </c>
@@ -4183,79 +4188,88 @@
         <v>159</v>
       </c>
       <c r="C174" s="2">
-        <v>107</v>
+        <v>133</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
       </c>
       <c r="H174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I174">
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43453</v>
+        <v>43454</v>
       </c>
       <c r="B175" t="s">
-        <v>160</v>
-      </c>
-      <c r="C175" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>163</v>
+        <v>118</v>
+      </c>
+      <c r="C175" s="2">
+        <v>28</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="I175">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43454</v>
+        <v>43455</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C176" s="2">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E176" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" s="2">
+        <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I176">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43455</v>
+        <v>43456</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
-      </c>
-      <c r="C177" s="2" t="e">
-        <v>#N/A</v>
+        <v>131</v>
+      </c>
+      <c r="C177" s="2">
+        <v>134</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E177" t="s">
         <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G177" s="2">
         <v>1</v>
@@ -4267,37 +4281,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>43456</v>
-      </c>
-      <c r="B178" t="s">
-        <v>131</v>
-      </c>
-      <c r="C178" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E178" t="s">
-        <v>7</v>
-      </c>
-      <c r="F178" t="s">
-        <v>59</v>
-      </c>
-      <c r="G178" s="2">
-        <v>1</v>
-      </c>
-      <c r="H178" t="s">
-        <v>123</v>
-      </c>
-      <c r="I178">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D178">
+  <autoFilter ref="D1:D177">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4308,6 +4293,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4341,7 +4327,7 @@
         <v>#N/A</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -4362,13 +4348,13 @@
         <v>43131</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4378,7 +4364,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -4395,7 +4381,7 @@
         <v>#N/A</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -4419,7 +4405,7 @@
         <v>#N/A</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -4446,7 +4432,7 @@
         <v>#N/A</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -4473,7 +4459,7 @@
         <v>#N/A</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -4497,7 +4483,7 @@
         <v>#N/A</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -4524,7 +4510,7 @@
         <v>#N/A</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -4548,7 +4534,7 @@
         <v>#N/A</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -4575,7 +4561,7 @@
         <v>#N/A</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -4599,7 +4585,7 @@
         <v>#N/A</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -4626,7 +4612,7 @@
         <v>#N/A</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -4650,7 +4636,7 @@
         <v>#N/A</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -4677,7 +4663,7 @@
         <v>#N/A</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -4704,7 +4690,7 @@
         <v>#N/A</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -4731,7 +4717,7 @@
         <v>#N/A</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -4758,7 +4744,7 @@
         <v>#N/A</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4785,7 +4771,7 @@
         <v>#N/A</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -4812,7 +4798,7 @@
         <v>#N/A</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -4841,7 +4827,7 @@
         <v>#N/A</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -4868,7 +4854,7 @@
         <v>#N/A</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -4889,20 +4875,20 @@
         <v>43279</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22">
         <v>17</v>
@@ -4919,7 +4905,7 @@
         <v>#N/A</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -4946,7 +4932,7 @@
         <v>#N/A</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -4970,7 +4956,7 @@
         <v>#N/A</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -4994,7 +4980,7 @@
         <v>#N/A</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -5018,7 +5004,7 @@
         <v>#N/A</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -5042,7 +5028,7 @@
         <v>#N/A</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -5066,7 +5052,7 @@
         <v>#N/A</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -5090,7 +5076,7 @@
         <v>#N/A</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -5117,7 +5103,7 @@
         <v>#N/A</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -5141,7 +5127,7 @@
         <v>#N/A</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -5168,7 +5154,7 @@
         <v>#N/A</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -5195,7 +5181,7 @@
         <v>#N/A</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -5222,7 +5208,7 @@
         <v>#N/A</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -5249,7 +5235,7 @@
         <v>#N/A</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -5259,7 +5245,7 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I36">
         <v>17</v>
@@ -5270,13 +5256,13 @@
         <v>43443</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="e">
         <v>#N/A</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -5286,7 +5272,7 @@
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I37">
         <v>18</v>
@@ -5303,7 +5289,7 @@
         <v>#N/A</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -5330,7 +5316,7 @@
         <v>#N/A</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>

--- a/dev/Transferencias.xlsx
+++ b/dev/Transferencias.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14355" windowHeight="6735" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14355" windowHeight="6735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CADASTRAR JOGADORES" sheetId="1" r:id="rId1"/>
     <sheet name="CADASTRAR TECNICOS" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="SQL TRANSF TECNICOS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="139">
   <si>
     <t>Pain Gaming</t>
   </si>
   <si>
-    <t>Mit</t>
-  </si>
-  <si>
     <t>&gt;</t>
   </si>
   <si>
@@ -36,24 +33,15 @@
     <t>BigGods Jackals</t>
   </si>
   <si>
-    <t>Rnglol</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
     <t>Strategic Coach</t>
   </si>
   <si>
-    <t>jUc</t>
-  </si>
-  <si>
     <t>Assistant Coach</t>
   </si>
   <si>
-    <t>PAADA</t>
-  </si>
-  <si>
     <t>Head Coach</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>Keyd Stars</t>
   </si>
   <si>
-    <t>Abaxial</t>
-  </si>
-  <si>
     <t>Coach</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Ziriguidun</t>
   </si>
   <si>
-    <t>Djokovic</t>
-  </si>
-  <si>
     <t>esa</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>JNG</t>
   </si>
   <si>
-    <t>Peter Dun</t>
-  </si>
-  <si>
     <t>Micao</t>
   </si>
   <si>
@@ -156,9 +135,6 @@
     <t>Vash</t>
   </si>
   <si>
-    <t>Galfi</t>
-  </si>
-  <si>
     <t>Yampi</t>
   </si>
   <si>
@@ -213,9 +189,6 @@
     <t>RED CANIDS</t>
   </si>
   <si>
-    <t>Brokenshard</t>
-  </si>
-  <si>
     <t>head coach</t>
   </si>
   <si>
@@ -252,9 +225,6 @@
     <t>Cabuloso</t>
   </si>
   <si>
-    <t>Icarus</t>
-  </si>
-  <si>
     <t>strategic coach</t>
   </si>
   <si>
@@ -285,9 +255,6 @@
     <t>RedBert</t>
   </si>
   <si>
-    <t>Neki</t>
-  </si>
-  <si>
     <t>bielz</t>
   </si>
   <si>
@@ -297,21 +264,12 @@
     <t>PRO GAMING</t>
   </si>
   <si>
-    <t>Von</t>
-  </si>
-  <si>
-    <t>Piroxz</t>
-  </si>
-  <si>
     <t>Ranger</t>
   </si>
   <si>
     <t>Luskka</t>
   </si>
   <si>
-    <t>Dionrray</t>
-  </si>
-  <si>
     <t>danz0r</t>
   </si>
   <si>
@@ -354,24 +312,12 @@
     <t>Atlanta</t>
   </si>
   <si>
-    <t>FeeFoo</t>
-  </si>
-  <si>
-    <t>Nuddle</t>
-  </si>
-  <si>
     <t>Dynquedo</t>
   </si>
   <si>
     <t>KZ</t>
   </si>
   <si>
-    <t>Hailer</t>
-  </si>
-  <si>
-    <t>Leando Martins</t>
-  </si>
-  <si>
     <t>cariocA</t>
   </si>
   <si>
@@ -393,9 +339,6 @@
     <t>Klaus</t>
   </si>
   <si>
-    <t>Cowelhy</t>
-  </si>
-  <si>
     <t>Eryon</t>
   </si>
   <si>
@@ -429,15 +372,9 @@
     <t>Joestar</t>
   </si>
   <si>
-    <t>DrPuppet</t>
-  </si>
-  <si>
     <t>consultant</t>
   </si>
   <si>
-    <t>Erickão</t>
-  </si>
-  <si>
     <t>Sarkis</t>
   </si>
   <si>
@@ -456,9 +393,6 @@
     <t>DudstheBoy</t>
   </si>
   <si>
-    <t>Dezenove</t>
-  </si>
-  <si>
     <t>Theusma</t>
   </si>
   <si>
@@ -474,9 +408,6 @@
     <t>Pimpimenta</t>
   </si>
   <si>
-    <t>Gratis150ml</t>
-  </si>
-  <si>
     <t>element</t>
   </si>
   <si>
@@ -493,14 +424,31 @@
   </si>
   <si>
     <t>Krastyel</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -528,12 +476,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,22 +806,22 @@
         <v>43106</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2">
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H1">
         <v>16</v>
@@ -882,22 +832,22 @@
         <v>43106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -908,22 +858,22 @@
         <v>43106</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -934,22 +884,22 @@
         <v>43106</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -960,22 +910,22 @@
         <v>43106</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -989,19 +939,19 @@
         <v>43113</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -1012,19 +962,19 @@
         <v>43113</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -1035,19 +985,19 @@
         <v>43113</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -1058,19 +1008,19 @@
         <v>43113</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2">
         <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -1081,22 +1031,22 @@
         <v>43131</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2">
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H11">
         <v>17</v>
@@ -1107,22 +1057,22 @@
         <v>43131</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2">
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H12">
         <v>17</v>
@@ -1133,22 +1083,22 @@
         <v>43131</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2">
         <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H13">
         <v>17</v>
@@ -1159,22 +1109,22 @@
         <v>43131</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2">
         <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H14">
         <v>17</v>
@@ -1191,22 +1141,22 @@
         <v>43162</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2">
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1217,22 +1167,22 @@
         <v>43165</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -1243,16 +1193,16 @@
         <v>43165</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H19">
         <v>16</v>
@@ -1275,16 +1225,16 @@
         <v>43201</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2">
         <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H24">
         <v>16</v>
@@ -1295,22 +1245,22 @@
         <v>43210</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1321,16 +1271,16 @@
         <v>43215</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2">
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -1341,22 +1291,22 @@
         <v>43216</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -1367,22 +1317,22 @@
         <v>43216</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28">
         <v>7</v>
@@ -1393,16 +1343,16 @@
         <v>43216</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -1416,22 +1366,22 @@
         <v>43218</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2">
         <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H31">
         <v>8</v>
@@ -1442,22 +1392,22 @@
         <v>43218</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2">
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H32">
         <v>8</v>
@@ -1468,22 +1418,22 @@
         <v>43218</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2">
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -1494,22 +1444,22 @@
         <v>43218</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H34">
         <v>8</v>
@@ -1520,22 +1470,22 @@
         <v>43218</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H35">
         <v>8</v>
@@ -1546,19 +1496,19 @@
         <v>43222</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2">
         <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1574,23 +1524,37 @@
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43225</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2">
         <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H41">
         <v>16</v>
@@ -1601,16 +1565,16 @@
         <v>43229</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2">
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
         <v>0</v>
@@ -1624,16 +1588,16 @@
         <v>43231</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2">
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1644,22 +1608,22 @@
         <v>43232</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C44" s="2">
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H44">
         <v>8</v>
@@ -1670,22 +1634,22 @@
         <v>43235</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2">
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1699,19 +1663,19 @@
         <v>43236</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2">
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>6</v>
@@ -1725,22 +1689,22 @@
         <v>43236</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2">
         <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H49">
         <v>17</v>
@@ -1760,22 +1724,22 @@
         <v>43237</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2">
         <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H53">
         <v>17</v>
@@ -1786,22 +1750,22 @@
         <v>43238</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2">
         <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H54">
         <v>17</v>
@@ -1812,16 +1776,16 @@
         <v>43242</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
         <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
         <v>0</v>
@@ -1835,22 +1799,22 @@
         <v>43242</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2">
         <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -1861,22 +1825,22 @@
         <v>43242</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2">
         <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H57">
         <v>5</v>
@@ -1887,22 +1851,22 @@
         <v>43242</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C58" s="2">
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -1913,22 +1877,22 @@
         <v>43242</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -1945,22 +1909,22 @@
         <v>43244</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -1971,22 +1935,22 @@
         <v>43244</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -1997,22 +1961,22 @@
         <v>43244</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2">
         <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H64">
         <v>16</v>
@@ -2023,22 +1987,22 @@
         <v>43244</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2">
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H65">
         <v>16</v>
@@ -2052,19 +2016,19 @@
         <v>43244</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C67" s="2">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>6</v>
@@ -2075,19 +2039,19 @@
         <v>43250</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2">
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H68">
         <v>9</v>
@@ -2101,22 +2065,22 @@
         <v>43273</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C70" s="2">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -2136,16 +2100,16 @@
         <v>43321</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C74" s="2">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -2156,16 +2120,16 @@
         <v>43242</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C75" s="2">
         <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -2176,16 +2140,16 @@
         <v>43322</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C76" s="2">
         <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -2196,16 +2160,16 @@
         <v>43327</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -2219,16 +2183,16 @@
         <v>43348</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2">
         <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -2245,16 +2209,16 @@
         <v>43350</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2">
         <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H82">
         <v>9</v>
@@ -2274,16 +2238,16 @@
         <v>43363</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H86">
         <v>7</v>
@@ -2294,16 +2258,16 @@
         <v>43364</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2">
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -2314,22 +2278,22 @@
         <v>43364</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2">
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H88">
         <v>7</v>
@@ -2340,19 +2304,19 @@
         <v>43366</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2">
         <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89">
         <v>7</v>
@@ -2363,16 +2327,16 @@
         <v>43366</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2">
         <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H90">
         <v>6</v>
@@ -2383,16 +2347,16 @@
         <v>43367</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2">
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H91">
         <v>9</v>
@@ -2403,16 +2367,16 @@
         <v>43371</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2">
         <v>130</v>
       </c>
       <c r="D92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -2426,16 +2390,16 @@
         <v>43378</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2">
         <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H94">
         <v>10</v>
@@ -2446,16 +2410,16 @@
         <v>43378</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2">
         <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H95">
         <v>10</v>
@@ -2466,16 +2430,16 @@
         <v>43383</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
         <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
         <v>0</v>
@@ -2489,16 +2453,16 @@
         <v>43383</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C97" s="2">
         <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>15</v>
@@ -2509,16 +2473,16 @@
         <v>43383</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C98" s="2">
         <v>54</v>
       </c>
       <c r="D98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>15</v>
@@ -2529,16 +2493,16 @@
         <v>43384</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2">
         <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>6</v>
@@ -2549,22 +2513,22 @@
         <v>43385</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2">
         <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -2575,19 +2539,19 @@
         <v>43385</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2">
         <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H101">
         <v>6</v>
@@ -2598,19 +2562,19 @@
         <v>43385</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2">
         <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>6</v>
@@ -2621,19 +2585,19 @@
         <v>43385</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2">
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>6</v>
@@ -2644,16 +2608,16 @@
         <v>43385</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2">
         <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H104">
         <v>17</v>
@@ -2664,16 +2628,16 @@
         <v>43389</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C105" s="2">
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
         <v>0</v>
@@ -2687,16 +2651,16 @@
         <v>43389</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2">
         <v>63</v>
       </c>
       <c r="D106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -2707,16 +2671,16 @@
         <v>43389</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2">
         <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -2727,16 +2691,16 @@
         <v>43391</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C108" s="2">
         <v>52</v>
       </c>
       <c r="D108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -2747,16 +2711,16 @@
         <v>43393</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C109" s="2">
         <v>63</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
@@ -2773,16 +2737,16 @@
         <v>43393</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C110" s="2">
         <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
@@ -2799,22 +2763,22 @@
         <v>43393</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2">
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -2825,19 +2789,19 @@
         <v>43395</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2">
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G112" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H112">
         <v>11</v>
@@ -2848,16 +2812,16 @@
         <v>43397</v>
       </c>
       <c r="B113" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2">
         <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H113">
         <v>17</v>
@@ -2868,16 +2832,16 @@
         <v>43397</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2">
         <v>116</v>
       </c>
       <c r="D114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H114">
         <v>17</v>
@@ -2888,22 +2852,22 @@
         <v>43398</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C115" s="2">
         <v>47</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H115">
         <v>16</v>
@@ -2914,19 +2878,19 @@
         <v>43400</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2">
         <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G116" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H116">
         <v>11</v>
@@ -2937,22 +2901,22 @@
         <v>43401</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2">
         <v>82</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -2963,19 +2927,19 @@
         <v>43404</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C118" s="2">
         <v>57</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>6</v>
@@ -2986,16 +2950,16 @@
         <v>43405</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2">
         <v>78</v>
       </c>
       <c r="D119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H119">
         <v>4</v>
@@ -3006,16 +2970,16 @@
         <v>43405</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C120" s="2">
         <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -3026,22 +2990,22 @@
         <v>43405</v>
       </c>
       <c r="B121" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2">
         <v>78</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -3052,22 +3016,22 @@
         <v>43407</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C122" s="2">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>15</v>
@@ -3081,19 +3045,19 @@
         <v>43411</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2">
         <v>77</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G124" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -3104,19 +3068,19 @@
         <v>43411</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2">
         <v>76</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H125">
         <v>7</v>
@@ -3127,22 +3091,22 @@
         <v>43412</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C126" s="2">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -3156,22 +3120,22 @@
         <v>43414</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2">
         <v>42</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H128">
         <v>16</v>
@@ -3182,22 +3146,22 @@
         <v>43414</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2">
         <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H129">
         <v>16</v>
@@ -3208,16 +3172,16 @@
         <v>43417</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C130" s="2">
         <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -3228,22 +3192,22 @@
         <v>43417</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C131" s="2">
         <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>15</v>
@@ -3254,16 +3218,16 @@
         <v>43417</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2">
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H132">
         <v>8</v>
@@ -3277,16 +3241,16 @@
         <v>43424</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2">
         <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H134">
         <v>5</v>
@@ -3300,19 +3264,19 @@
         <v>43426</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2">
         <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H136">
         <v>11</v>
@@ -3323,22 +3287,22 @@
         <v>43427</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C137" s="2">
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H137">
         <v>5</v>
@@ -3349,22 +3313,22 @@
         <v>43427</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C138" s="2">
         <v>54</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H138">
         <v>5</v>
@@ -3375,16 +3339,16 @@
         <v>43431</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -3395,16 +3359,16 @@
         <v>43432</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2">
         <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -3415,16 +3379,16 @@
         <v>43434</v>
       </c>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2">
         <v>121</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G141" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -3435,16 +3399,16 @@
         <v>43434</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C142" s="2">
         <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H142">
         <v>7</v>
@@ -3455,19 +3419,19 @@
         <v>43436</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C143" s="2">
         <v>75</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G143" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H143">
         <v>17</v>
@@ -3478,16 +3442,16 @@
         <v>43436</v>
       </c>
       <c r="B144" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C144" s="2">
         <v>126</v>
       </c>
       <c r="D144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="H144">
         <v>17</v>
@@ -3501,19 +3465,19 @@
         <v>43438</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2">
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H146">
         <v>14</v>
@@ -3524,19 +3488,19 @@
         <v>43439</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C147" s="2">
         <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H147">
         <v>14</v>
@@ -3547,16 +3511,16 @@
         <v>43440</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2">
         <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>15</v>
@@ -3567,19 +3531,19 @@
         <v>43440</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2">
         <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H149">
         <v>14</v>
@@ -3590,16 +3554,16 @@
         <v>43441</v>
       </c>
       <c r="B150" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2">
         <v>23</v>
       </c>
       <c r="D150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -3610,19 +3574,19 @@
         <v>43441</v>
       </c>
       <c r="B151" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C151" s="2">
         <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G151" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H151">
         <v>14</v>
@@ -3633,22 +3597,22 @@
         <v>43441</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2">
         <v>88</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H152">
         <v>8</v>
@@ -3659,16 +3623,16 @@
         <v>43442</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2">
         <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H153">
         <v>9</v>
@@ -3679,22 +3643,22 @@
         <v>43443</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C154" s="2">
         <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H154">
         <v>18</v>
@@ -3705,22 +3669,22 @@
         <v>43443</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C155" s="2">
         <v>124</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H155">
         <v>18</v>
@@ -3731,22 +3695,22 @@
         <v>43443</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C156" s="2">
         <v>118</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H156">
         <v>18</v>
@@ -3757,22 +3721,22 @@
         <v>43443</v>
       </c>
       <c r="B157" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C157" s="2">
         <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
       </c>
       <c r="G157" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H157">
         <v>18</v>
@@ -3786,22 +3750,22 @@
         <v>43445</v>
       </c>
       <c r="B159" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2">
         <v>119</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -3812,22 +3776,22 @@
         <v>43445</v>
       </c>
       <c r="B160" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C160" s="2">
         <v>120</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -3838,22 +3802,22 @@
         <v>43445</v>
       </c>
       <c r="B161" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C161" s="2">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -3864,16 +3828,16 @@
         <v>43445</v>
       </c>
       <c r="B162" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C162" s="2">
         <v>51</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G162" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -3890,22 +3854,22 @@
         <v>43446</v>
       </c>
       <c r="B165" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C165" s="2">
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -3916,22 +3880,22 @@
         <v>43446</v>
       </c>
       <c r="B166" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C166" s="2">
         <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -3942,22 +3906,22 @@
         <v>43446</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C167" s="2">
         <v>99</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -3968,19 +3932,19 @@
         <v>43446</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2">
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H168">
         <v>4</v>
@@ -3991,19 +3955,19 @@
         <v>43452</v>
       </c>
       <c r="B169" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2">
         <v>125</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G169" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H169">
         <v>14</v>
@@ -4014,16 +3978,16 @@
         <v>43453</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C170" s="2">
         <v>50</v>
       </c>
       <c r="D170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H170">
         <v>18</v>
@@ -4034,16 +3998,16 @@
         <v>43453</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2">
         <v>107</v>
       </c>
       <c r="D171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H171">
         <v>18</v>
@@ -4054,16 +4018,16 @@
         <v>43453</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C172" s="2">
         <v>133</v>
       </c>
       <c r="D172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H172">
         <v>18</v>
@@ -4074,16 +4038,16 @@
         <v>43454</v>
       </c>
       <c r="B173" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C173" s="2">
         <v>28</v>
       </c>
       <c r="D173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>6</v>
@@ -4094,22 +4058,22 @@
         <v>43455</v>
       </c>
       <c r="B174" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C174" s="2">
         <v>129</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
       </c>
       <c r="G174" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H174">
         <v>9</v>
@@ -4120,22 +4084,22 @@
         <v>43456</v>
       </c>
       <c r="B175" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C175" s="2">
         <v>134</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
       </c>
       <c r="G175" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H175">
         <v>9</v>
@@ -4152,827 +4116,1622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>43106</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43184</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43197</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43197</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43218</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43222</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>43222</v>
       </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43222</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2">
         <v>6</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>43224</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43225</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>43236</v>
       </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="2">
         <v>6</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>43237</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>43237</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43237</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43242</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43244</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43279</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43315</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43320</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43339</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43349</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43352</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43378</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43408</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43422</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43425</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43437</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43443</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B34" s="2">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B35" s="2">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43242</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43279</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43315</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43320</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43339</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43349</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43354</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43354</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43378</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43408</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43422</v>
-      </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43425</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43437</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43443</v>
-      </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43445</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43445</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>43106</v>
+      </c>
+      <c r="B1" s="2">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43184</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43197</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43197</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43218</v>
+      </c>
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43222</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43222</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43224</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43236</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43242</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43244</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43279</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43315</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43320</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43339</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>43349</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43352</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>43354</v>
+      </c>
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43378</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>43408</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43422</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43425</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43437</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>43443</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B34" s="2">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>43445</v>
+      </c>
+      <c r="B35" s="2">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>